--- a/productos.xlsx
+++ b/productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/064937db6ab52f6d/Desktop/web_carrito/rmkits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/064937db6ab52f6d/Desktop/web_carrito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="438" documentId="13_ncr:1_{25564EA4-A796-44CA-913D-60037C28D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5833748-FDB4-457A-B623-389E3FAF5B41}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="13_ncr:1_{25564EA4-A796-44CA-913D-60037C28D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B4C679-1A0A-45B8-8DBB-A511F094925A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C4B6B2E4-7AFF-45F0-BE4D-6E6AB0ED2031}"/>
   </bookViews>
@@ -1491,7 +1491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1562,11 +1562,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1608,19 +1619,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1636,6 +1635,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1935,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0D8A5A-108C-466C-953C-70B57E87E4C5}">
-  <dimension ref="A1:BS222"/>
+  <dimension ref="A1:BS221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1985,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2011,7 +2014,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2040,7 +2043,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="5" t="s">
         <v>336</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2069,14 +2072,14 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="5">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="E5" s="5">
         <v>30</v>
@@ -2098,14 +2101,14 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E6" s="5">
         <v>30</v>
@@ -2127,7 +2130,7 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2156,7 +2159,7 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2185,7 +2188,7 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2214,7 +2217,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2243,14 +2246,14 @@
       <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E11" s="5">
         <v>12</v>
@@ -2272,14 +2275,14 @@
       <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="5">
         <v>6</v>
@@ -2301,14 +2304,14 @@
       <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="5">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="E13" s="5">
         <v>6</v>
@@ -2330,14 +2333,14 @@
       <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="5">
-        <v>4800</v>
+        <v>5800</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
@@ -2359,7 +2362,7 @@
       <c r="A15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2388,7 +2391,7 @@
       <c r="A16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2417,14 +2420,14 @@
       <c r="A17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="5">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="E17" s="5">
         <v>12</v>
@@ -2447,14 +2450,14 @@
       <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="5">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="E18" s="5">
         <v>12</v>
@@ -2477,7 +2480,7 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2507,7 +2510,7 @@
       <c r="A20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2537,7 +2540,7 @@
       <c r="A21" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2567,14 +2570,14 @@
       <c r="A22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E22" s="5">
         <v>24</v>
@@ -2597,14 +2600,14 @@
       <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="5">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="E23" s="5">
         <v>12</v>
@@ -2627,14 +2630,14 @@
       <c r="A24" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="5">
-        <v>1650</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="5">
         <v>12</v>
@@ -2657,14 +2660,14 @@
       <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E25" s="5">
         <v>12</v>
@@ -2687,14 +2690,14 @@
       <c r="A26" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="5">
-        <v>4600</v>
+        <v>5600</v>
       </c>
       <c r="E26" s="5">
         <v>12</v>
@@ -2717,14 +2720,14 @@
       <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="5">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E27" s="5">
         <v>12</v>
@@ -2747,14 +2750,14 @@
       <c r="A28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="5">
-        <v>26000</v>
+        <v>30600</v>
       </c>
       <c r="E28" s="5">
         <v>8</v>
@@ -2777,14 +2780,14 @@
       <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="5">
-        <v>36500</v>
+        <v>42000</v>
       </c>
       <c r="E29" s="5">
         <v>6</v>
@@ -2807,14 +2810,14 @@
       <c r="A30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="5">
-        <v>49000</v>
+        <v>58000</v>
       </c>
       <c r="E30" s="5">
         <v>3</v>
@@ -2837,14 +2840,14 @@
       <c r="A31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="5">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E31" s="5">
         <v>12</v>
@@ -2867,14 +2870,14 @@
       <c r="A32" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="5">
-        <v>7920</v>
+        <v>8640</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2897,14 +2900,14 @@
       <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="5">
-        <v>7920</v>
+        <v>8640</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2927,14 +2930,14 @@
       <c r="A34" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="5">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="E34" s="5">
         <v>24</v>
@@ -2957,14 +2960,14 @@
       <c r="A35" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="5">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E35" s="5">
         <v>24</v>
@@ -2987,7 +2990,7 @@
       <c r="A36" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="5" t="s">
         <v>341</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -3017,7 +3020,7 @@
       <c r="A37" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -3047,7 +3050,7 @@
       <c r="A38" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -3077,7 +3080,7 @@
       <c r="A39" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -3107,7 +3110,7 @@
       <c r="A40" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3137,7 +3140,7 @@
       <c r="A41" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -3167,14 +3170,14 @@
       <c r="A42" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E42" s="5">
         <v>24</v>
@@ -3197,14 +3200,14 @@
       <c r="A43" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="5">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E43" s="5">
         <v>24</v>
@@ -3227,14 +3230,14 @@
       <c r="A44" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="5">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="E44" s="5">
         <v>12</v>
@@ -3257,12 +3260,12 @@
       <c r="A45" t="s">
         <v>269</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="5" t="s">
         <v>270</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="5">
         <v>12</v>
@@ -3285,12 +3288,12 @@
       <c r="A46" t="s">
         <v>271</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="5" t="s">
         <v>272</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E46" s="5">
         <v>12</v>
@@ -3313,7 +3316,7 @@
       <c r="A47" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3343,14 +3346,14 @@
       <c r="A48" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="5" t="s">
         <v>274</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="5">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="E48" s="5">
         <v>12</v>
@@ -3373,12 +3376,12 @@
       <c r="A49" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="6" t="s">
         <v>275</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="7">
         <v>12</v>
@@ -3401,12 +3404,12 @@
       <c r="A50" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="6" t="s">
         <v>276</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E50" s="7">
         <v>30</v>
@@ -3429,7 +3432,7 @@
       <c r="A51" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3459,7 +3462,7 @@
       <c r="A52" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -3489,7 +3492,7 @@
       <c r="A53" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -3519,7 +3522,7 @@
       <c r="A54" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -3549,7 +3552,7 @@
       <c r="A55" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -3579,7 +3582,7 @@
       <c r="A56" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -3609,7 +3612,7 @@
       <c r="A57" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -3639,7 +3642,7 @@
       <c r="A58" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -3665,11 +3668,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -3699,7 +3702,7 @@
       <c r="A60" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -3729,7 +3732,7 @@
       <c r="A61" t="s">
         <v>172</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -3759,7 +3762,7 @@
       <c r="A62" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3789,7 +3792,7 @@
       <c r="A63" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -3819,7 +3822,7 @@
       <c r="A64" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -3849,7 +3852,7 @@
       <c r="A65" t="s">
         <v>176</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3879,7 +3882,7 @@
       <c r="A66" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -3909,7 +3912,7 @@
       <c r="A67" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -3939,7 +3942,7 @@
       <c r="A68" t="s">
         <v>179</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -3969,7 +3972,7 @@
       <c r="A69" t="s">
         <v>180</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -3999,7 +4002,7 @@
       <c r="A70" t="s">
         <v>181</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -4029,7 +4032,7 @@
       <c r="A71" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -4059,7 +4062,7 @@
       <c r="A72" t="s">
         <v>183</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -4089,7 +4092,7 @@
       <c r="A73" t="s">
         <v>184</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -4119,7 +4122,7 @@
       <c r="A74" t="s">
         <v>185</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -4149,7 +4152,7 @@
       <c r="A75" t="s">
         <v>186</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4179,7 +4182,7 @@
       <c r="A76" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4209,7 +4212,7 @@
       <c r="A77" t="s">
         <v>188</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4239,7 +4242,7 @@
       <c r="A78" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4269,7 +4272,7 @@
       <c r="A79" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4295,11 +4298,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>191</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4329,7 +4332,7 @@
       <c r="A81" t="s">
         <v>192</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -4359,7 +4362,7 @@
       <c r="A82" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4389,7 +4392,7 @@
       <c r="A83" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4419,7 +4422,7 @@
       <c r="A84" t="s">
         <v>194</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4449,7 +4452,7 @@
       <c r="A85" t="s">
         <v>195</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -4479,7 +4482,7 @@
       <c r="A86" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -4509,7 +4512,7 @@
       <c r="A87" t="s">
         <v>197</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -4539,7 +4542,7 @@
       <c r="A88" t="s">
         <v>198</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -4569,7 +4572,7 @@
       <c r="A89" t="s">
         <v>199</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -4599,7 +4602,7 @@
       <c r="A90" t="s">
         <v>200</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -4629,7 +4632,7 @@
       <c r="A91" t="s">
         <v>201</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -4659,7 +4662,7 @@
       <c r="A92" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -4689,7 +4692,7 @@
       <c r="A93" t="s">
         <v>203</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C93" s="1"/>
@@ -4717,7 +4720,7 @@
       <c r="A94" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C94" s="1"/>
@@ -4745,7 +4748,7 @@
       <c r="A95" t="s">
         <v>205</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C95" s="1"/>
@@ -4773,7 +4776,7 @@
       <c r="A96" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C96" s="1"/>
@@ -4801,7 +4804,7 @@
       <c r="A97" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C97" s="1"/>
@@ -4829,7 +4832,7 @@
       <c r="A98" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C98" s="1"/>
@@ -4857,7 +4860,7 @@
       <c r="A99" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C99" s="1"/>
@@ -4885,7 +4888,7 @@
       <c r="A100" t="s">
         <v>210</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -4915,7 +4918,7 @@
       <c r="A101" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4945,7 +4948,7 @@
       <c r="A102" t="s">
         <v>212</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -4971,11 +4974,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>213</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -5005,7 +5008,7 @@
       <c r="A104" t="s">
         <v>214</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -5031,11 +5034,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -5061,11 +5064,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>216</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5095,7 +5098,7 @@
       <c r="A107" t="s">
         <v>217</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -5125,7 +5128,7 @@
       <c r="A108" t="s">
         <v>218</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -5155,7 +5158,7 @@
       <c r="A109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5185,7 +5188,7 @@
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5215,7 +5218,7 @@
       <c r="A111" t="s">
         <v>221</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -5245,7 +5248,7 @@
       <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5275,7 +5278,7 @@
       <c r="A113" t="s">
         <v>223</v>
       </c>
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -5305,7 +5308,7 @@
       <c r="A114" t="s">
         <v>224</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -5335,7 +5338,7 @@
       <c r="A115" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -5365,7 +5368,7 @@
       <c r="A116" t="s">
         <v>226</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -5395,7 +5398,7 @@
       <c r="A117" t="s">
         <v>290</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5425,7 +5428,7 @@
       <c r="A118" t="s">
         <v>227</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -5455,7 +5458,7 @@
       <c r="A119" t="s">
         <v>228</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -5485,7 +5488,7 @@
       <c r="A120" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -5515,7 +5518,7 @@
       <c r="A121" t="s">
         <v>230</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -5545,7 +5548,7 @@
       <c r="A122" t="s">
         <v>231</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -5575,7 +5578,7 @@
       <c r="A123" t="s">
         <v>232</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -5605,7 +5608,7 @@
       <c r="A124" t="s">
         <v>233</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -5631,11 +5634,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>234</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -5665,7 +5668,7 @@
       <c r="A126" t="s">
         <v>235</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -5695,7 +5698,7 @@
       <c r="A127" t="s">
         <v>236</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -5725,7 +5728,7 @@
       <c r="A128" t="s">
         <v>237</v>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -5751,11 +5754,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>238</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -5781,11 +5784,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>239</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -5811,11 +5814,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>240</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -5841,11 +5844,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>241</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -5871,11 +5874,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>242</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -5905,7 +5908,7 @@
       <c r="A134" t="s">
         <v>243</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -5935,7 +5938,7 @@
       <c r="A135" t="s">
         <v>244</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -6986,7 +6989,7 @@
         <v>369</v>
       </c>
       <c r="D170">
-        <v>690</v>
+        <v>1100</v>
       </c>
       <c r="E170">
         <v>4</v>
@@ -7336,88 +7339,25 @@
       <c r="B183" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C183" s="22"/>
-      <c r="D183" s="18">
+      <c r="D183" s="5">
         <v>250</v>
       </c>
-      <c r="E183" s="22">
+      <c r="E183">
         <v>60</v>
       </c>
-      <c r="F183" s="22">
+      <c r="F183">
         <v>60</v>
       </c>
-      <c r="G183" s="22">
+      <c r="G183">
         <v>240</v>
       </c>
-      <c r="H183" s="22" t="str">
+      <c r="H183" t="str">
         <f t="shared" si="2"/>
         <v>A0182.jpg</v>
       </c>
-      <c r="I183" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J183" s="22"/>
-      <c r="K183" s="22"/>
-      <c r="L183" s="22"/>
-      <c r="M183" s="22"/>
-      <c r="N183" s="22"/>
-      <c r="O183" s="22"/>
-      <c r="P183" s="22"/>
-      <c r="Q183" s="22"/>
-      <c r="R183" s="22"/>
-      <c r="S183" s="22"/>
-      <c r="T183" s="22"/>
-      <c r="U183" s="22"/>
-      <c r="V183" s="22"/>
-      <c r="W183" s="22"/>
-      <c r="X183" s="22"/>
-      <c r="Y183" s="22"/>
-      <c r="Z183" s="22"/>
-      <c r="AA183" s="22"/>
-      <c r="AB183" s="22"/>
-      <c r="AC183" s="22"/>
-      <c r="AD183" s="22"/>
-      <c r="AE183" s="22"/>
-      <c r="AF183" s="22"/>
-      <c r="AG183" s="22"/>
-      <c r="AH183" s="22"/>
-      <c r="AI183" s="22"/>
-      <c r="AJ183" s="22"/>
-      <c r="AK183" s="22"/>
-      <c r="AL183" s="22"/>
-      <c r="AM183" s="22"/>
-      <c r="AN183" s="22"/>
-      <c r="AO183" s="22"/>
-      <c r="AP183" s="22"/>
-      <c r="AQ183" s="22"/>
-      <c r="AR183" s="22"/>
-      <c r="AS183" s="22"/>
-      <c r="AT183" s="22"/>
-      <c r="AU183" s="22"/>
-      <c r="AV183" s="22"/>
-      <c r="AW183" s="22"/>
-      <c r="AX183" s="22"/>
-      <c r="AY183" s="22"/>
-      <c r="AZ183" s="22"/>
-      <c r="BA183" s="22"/>
-      <c r="BB183" s="22"/>
-      <c r="BC183" s="22"/>
-      <c r="BD183" s="22"/>
-      <c r="BE183" s="22"/>
-      <c r="BF183" s="22"/>
-      <c r="BG183" s="22"/>
-      <c r="BH183" s="22"/>
-      <c r="BI183" s="22"/>
-      <c r="BJ183" s="22"/>
-      <c r="BK183" s="22"/>
-      <c r="BL183" s="22"/>
-      <c r="BM183" s="22"/>
-      <c r="BN183" s="22"/>
-      <c r="BO183" s="22"/>
-      <c r="BP183" s="22"/>
-      <c r="BQ183" s="22"/>
-      <c r="BR183" s="22"/>
-      <c r="BS183" s="22"/>
+      <c r="I183" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="184" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -7426,88 +7366,25 @@
       <c r="B184" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C184" s="22"/>
-      <c r="D184" s="18">
+      <c r="D184" s="5">
         <v>200</v>
       </c>
-      <c r="E184" s="22">
-        <v>12</v>
-      </c>
-      <c r="F184" s="22">
-        <v>12</v>
-      </c>
-      <c r="G184" s="22">
+      <c r="E184">
+        <v>12</v>
+      </c>
+      <c r="F184">
+        <v>12</v>
+      </c>
+      <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184" s="22" t="str">
+      <c r="H184" t="str">
         <f t="shared" si="2"/>
         <v>A0183.jpg</v>
       </c>
-      <c r="I184" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J184" s="22"/>
-      <c r="K184" s="22"/>
-      <c r="L184" s="22"/>
-      <c r="M184" s="22"/>
-      <c r="N184" s="22"/>
-      <c r="O184" s="22"/>
-      <c r="P184" s="22"/>
-      <c r="Q184" s="22"/>
-      <c r="R184" s="22"/>
-      <c r="S184" s="22"/>
-      <c r="T184" s="22"/>
-      <c r="U184" s="22"/>
-      <c r="V184" s="22"/>
-      <c r="W184" s="22"/>
-      <c r="X184" s="22"/>
-      <c r="Y184" s="22"/>
-      <c r="Z184" s="22"/>
-      <c r="AA184" s="22"/>
-      <c r="AB184" s="22"/>
-      <c r="AC184" s="22"/>
-      <c r="AD184" s="22"/>
-      <c r="AE184" s="22"/>
-      <c r="AF184" s="22"/>
-      <c r="AG184" s="22"/>
-      <c r="AH184" s="22"/>
-      <c r="AI184" s="22"/>
-      <c r="AJ184" s="22"/>
-      <c r="AK184" s="22"/>
-      <c r="AL184" s="22"/>
-      <c r="AM184" s="22"/>
-      <c r="AN184" s="22"/>
-      <c r="AO184" s="22"/>
-      <c r="AP184" s="22"/>
-      <c r="AQ184" s="22"/>
-      <c r="AR184" s="22"/>
-      <c r="AS184" s="22"/>
-      <c r="AT184" s="22"/>
-      <c r="AU184" s="22"/>
-      <c r="AV184" s="22"/>
-      <c r="AW184" s="22"/>
-      <c r="AX184" s="22"/>
-      <c r="AY184" s="22"/>
-      <c r="AZ184" s="22"/>
-      <c r="BA184" s="22"/>
-      <c r="BB184" s="22"/>
-      <c r="BC184" s="22"/>
-      <c r="BD184" s="22"/>
-      <c r="BE184" s="22"/>
-      <c r="BF184" s="22"/>
-      <c r="BG184" s="22"/>
-      <c r="BH184" s="22"/>
-      <c r="BI184" s="22"/>
-      <c r="BJ184" s="22"/>
-      <c r="BK184" s="22"/>
-      <c r="BL184" s="22"/>
-      <c r="BM184" s="22"/>
-      <c r="BN184" s="22"/>
-      <c r="BO184" s="22"/>
-      <c r="BP184" s="22"/>
-      <c r="BQ184" s="22"/>
-      <c r="BR184" s="22"/>
-      <c r="BS184" s="22"/>
+      <c r="I184" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="185" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
@@ -7516,88 +7393,88 @@
       <c r="B185" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="C185" s="22"/>
-      <c r="D185" s="18">
+      <c r="C185"/>
+      <c r="D185" s="5">
         <v>300</v>
       </c>
-      <c r="E185" s="22">
-        <v>12</v>
-      </c>
-      <c r="F185" s="22">
-        <v>12</v>
-      </c>
-      <c r="G185" s="22">
+      <c r="E185">
+        <v>12</v>
+      </c>
+      <c r="F185">
+        <v>12</v>
+      </c>
+      <c r="G185">
         <v>144</v>
       </c>
-      <c r="H185" s="22" t="str">
+      <c r="H185" t="str">
         <f t="shared" si="2"/>
         <v>A0184.jpg</v>
       </c>
-      <c r="I185" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J185" s="22"/>
-      <c r="K185" s="22"/>
-      <c r="L185" s="22"/>
-      <c r="M185" s="22"/>
-      <c r="N185" s="22"/>
-      <c r="O185" s="22"/>
-      <c r="P185" s="22"/>
-      <c r="Q185" s="22"/>
-      <c r="R185" s="22"/>
-      <c r="S185" s="22"/>
-      <c r="T185" s="22"/>
-      <c r="U185" s="22"/>
-      <c r="V185" s="22"/>
-      <c r="W185" s="22"/>
-      <c r="X185" s="22"/>
-      <c r="Y185" s="22"/>
-      <c r="Z185" s="22"/>
-      <c r="AA185" s="22"/>
-      <c r="AB185" s="22"/>
-      <c r="AC185" s="22"/>
-      <c r="AD185" s="22"/>
-      <c r="AE185" s="22"/>
-      <c r="AF185" s="22"/>
-      <c r="AG185" s="22"/>
-      <c r="AH185" s="22"/>
-      <c r="AI185" s="22"/>
-      <c r="AJ185" s="22"/>
-      <c r="AK185" s="22"/>
-      <c r="AL185" s="22"/>
-      <c r="AM185" s="22"/>
-      <c r="AN185" s="22"/>
-      <c r="AO185" s="22"/>
-      <c r="AP185" s="22"/>
-      <c r="AQ185" s="22"/>
-      <c r="AR185" s="22"/>
-      <c r="AS185" s="22"/>
-      <c r="AT185" s="22"/>
-      <c r="AU185" s="22"/>
-      <c r="AV185" s="22"/>
-      <c r="AW185" s="22"/>
-      <c r="AX185" s="22"/>
-      <c r="AY185" s="22"/>
-      <c r="AZ185" s="22"/>
-      <c r="BA185" s="22"/>
-      <c r="BB185" s="22"/>
-      <c r="BC185" s="22"/>
-      <c r="BD185" s="22"/>
-      <c r="BE185" s="22"/>
-      <c r="BF185" s="22"/>
-      <c r="BG185" s="22"/>
-      <c r="BH185" s="22"/>
-      <c r="BI185" s="22"/>
-      <c r="BJ185" s="22"/>
-      <c r="BK185" s="22"/>
-      <c r="BL185" s="22"/>
-      <c r="BM185" s="22"/>
-      <c r="BN185" s="22"/>
-      <c r="BO185" s="22"/>
-      <c r="BP185" s="22"/>
-      <c r="BQ185" s="22"/>
-      <c r="BR185" s="22"/>
-      <c r="BS185" s="22"/>
+      <c r="I185" t="s">
+        <v>48</v>
+      </c>
+      <c r="J185"/>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+      <c r="Q185"/>
+      <c r="R185"/>
+      <c r="S185"/>
+      <c r="T185"/>
+      <c r="U185"/>
+      <c r="V185"/>
+      <c r="W185"/>
+      <c r="X185"/>
+      <c r="Y185"/>
+      <c r="Z185"/>
+      <c r="AA185"/>
+      <c r="AB185"/>
+      <c r="AC185"/>
+      <c r="AD185"/>
+      <c r="AE185"/>
+      <c r="AF185"/>
+      <c r="AG185"/>
+      <c r="AH185"/>
+      <c r="AI185"/>
+      <c r="AJ185"/>
+      <c r="AK185"/>
+      <c r="AL185"/>
+      <c r="AM185"/>
+      <c r="AN185"/>
+      <c r="AO185"/>
+      <c r="AP185"/>
+      <c r="AQ185"/>
+      <c r="AR185"/>
+      <c r="AS185"/>
+      <c r="AT185"/>
+      <c r="AU185"/>
+      <c r="AV185"/>
+      <c r="AW185"/>
+      <c r="AX185"/>
+      <c r="AY185"/>
+      <c r="AZ185"/>
+      <c r="BA185"/>
+      <c r="BB185"/>
+      <c r="BC185"/>
+      <c r="BD185"/>
+      <c r="BE185"/>
+      <c r="BF185"/>
+      <c r="BG185"/>
+      <c r="BH185"/>
+      <c r="BI185"/>
+      <c r="BJ185"/>
+      <c r="BK185"/>
+      <c r="BL185"/>
+      <c r="BM185"/>
+      <c r="BN185"/>
+      <c r="BO185"/>
+      <c r="BP185"/>
+      <c r="BQ185"/>
+      <c r="BR185"/>
+      <c r="BS185"/>
     </row>
     <row r="186" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
@@ -7606,88 +7483,88 @@
       <c r="B186" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C186" s="22"/>
-      <c r="D186" s="18">
+      <c r="C186"/>
+      <c r="D186" s="5">
         <v>300</v>
       </c>
-      <c r="E186" s="22">
+      <c r="E186">
         <v>20</v>
       </c>
-      <c r="F186" s="22">
-        <v>1</v>
-      </c>
-      <c r="G186" s="22">
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
         <v>300</v>
       </c>
-      <c r="H186" s="22" t="str">
+      <c r="H186" t="str">
         <f t="shared" si="2"/>
         <v>A0185.jpg</v>
       </c>
-      <c r="I186" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J186" s="22"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="22"/>
-      <c r="M186" s="22"/>
-      <c r="N186" s="22"/>
-      <c r="O186" s="22"/>
-      <c r="P186" s="22"/>
-      <c r="Q186" s="22"/>
-      <c r="R186" s="22"/>
-      <c r="S186" s="22"/>
-      <c r="T186" s="22"/>
-      <c r="U186" s="22"/>
-      <c r="V186" s="22"/>
-      <c r="W186" s="22"/>
-      <c r="X186" s="22"/>
-      <c r="Y186" s="22"/>
-      <c r="Z186" s="22"/>
-      <c r="AA186" s="22"/>
-      <c r="AB186" s="22"/>
-      <c r="AC186" s="22"/>
-      <c r="AD186" s="22"/>
-      <c r="AE186" s="22"/>
-      <c r="AF186" s="22"/>
-      <c r="AG186" s="22"/>
-      <c r="AH186" s="22"/>
-      <c r="AI186" s="22"/>
-      <c r="AJ186" s="22"/>
-      <c r="AK186" s="22"/>
-      <c r="AL186" s="22"/>
-      <c r="AM186" s="22"/>
-      <c r="AN186" s="22"/>
-      <c r="AO186" s="22"/>
-      <c r="AP186" s="22"/>
-      <c r="AQ186" s="22"/>
-      <c r="AR186" s="22"/>
-      <c r="AS186" s="22"/>
-      <c r="AT186" s="22"/>
-      <c r="AU186" s="22"/>
-      <c r="AV186" s="22"/>
-      <c r="AW186" s="22"/>
-      <c r="AX186" s="22"/>
-      <c r="AY186" s="22"/>
-      <c r="AZ186" s="22"/>
-      <c r="BA186" s="22"/>
-      <c r="BB186" s="22"/>
-      <c r="BC186" s="22"/>
-      <c r="BD186" s="22"/>
-      <c r="BE186" s="22"/>
-      <c r="BF186" s="22"/>
-      <c r="BG186" s="22"/>
-      <c r="BH186" s="22"/>
-      <c r="BI186" s="22"/>
-      <c r="BJ186" s="22"/>
-      <c r="BK186" s="22"/>
-      <c r="BL186" s="22"/>
-      <c r="BM186" s="22"/>
-      <c r="BN186" s="22"/>
-      <c r="BO186" s="22"/>
-      <c r="BP186" s="22"/>
-      <c r="BQ186" s="22"/>
-      <c r="BR186" s="22"/>
-      <c r="BS186" s="22"/>
+      <c r="I186" t="s">
+        <v>48</v>
+      </c>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186"/>
+      <c r="Q186"/>
+      <c r="R186"/>
+      <c r="S186"/>
+      <c r="T186"/>
+      <c r="U186"/>
+      <c r="V186"/>
+      <c r="W186"/>
+      <c r="X186"/>
+      <c r="Y186"/>
+      <c r="Z186"/>
+      <c r="AA186"/>
+      <c r="AB186"/>
+      <c r="AC186"/>
+      <c r="AD186"/>
+      <c r="AE186"/>
+      <c r="AF186"/>
+      <c r="AG186"/>
+      <c r="AH186"/>
+      <c r="AI186"/>
+      <c r="AJ186"/>
+      <c r="AK186"/>
+      <c r="AL186"/>
+      <c r="AM186"/>
+      <c r="AN186"/>
+      <c r="AO186"/>
+      <c r="AP186"/>
+      <c r="AQ186"/>
+      <c r="AR186"/>
+      <c r="AS186"/>
+      <c r="AT186"/>
+      <c r="AU186"/>
+      <c r="AV186"/>
+      <c r="AW186"/>
+      <c r="AX186"/>
+      <c r="AY186"/>
+      <c r="AZ186"/>
+      <c r="BA186"/>
+      <c r="BB186"/>
+      <c r="BC186"/>
+      <c r="BD186"/>
+      <c r="BE186"/>
+      <c r="BF186"/>
+      <c r="BG186"/>
+      <c r="BH186"/>
+      <c r="BI186"/>
+      <c r="BJ186"/>
+      <c r="BK186"/>
+      <c r="BL186"/>
+      <c r="BM186"/>
+      <c r="BN186"/>
+      <c r="BO186"/>
+      <c r="BP186"/>
+      <c r="BQ186"/>
+      <c r="BR186"/>
+      <c r="BS186"/>
     </row>
     <row r="187" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -7696,178 +7573,52 @@
       <c r="B187" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C187" s="22"/>
-      <c r="D187" s="18">
+      <c r="D187" s="5">
         <v>810</v>
       </c>
-      <c r="E187" s="22">
-        <v>12</v>
-      </c>
-      <c r="F187" s="22">
-        <v>12</v>
-      </c>
-      <c r="G187" s="22">
+      <c r="E187">
+        <v>12</v>
+      </c>
+      <c r="F187">
+        <v>12</v>
+      </c>
+      <c r="G187">
         <v>0</v>
       </c>
-      <c r="H187" s="22" t="str">
+      <c r="H187" t="str">
         <f t="shared" si="2"/>
         <v>A0186.jpg</v>
       </c>
-      <c r="I187" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J187" s="22"/>
-      <c r="K187" s="22"/>
-      <c r="L187" s="22"/>
-      <c r="M187" s="22"/>
-      <c r="N187" s="22"/>
-      <c r="O187" s="22"/>
-      <c r="P187" s="22"/>
-      <c r="Q187" s="22"/>
-      <c r="R187" s="22"/>
-      <c r="S187" s="22"/>
-      <c r="T187" s="22"/>
-      <c r="U187" s="22"/>
-      <c r="V187" s="22"/>
-      <c r="W187" s="22"/>
-      <c r="X187" s="22"/>
-      <c r="Y187" s="22"/>
-      <c r="Z187" s="22"/>
-      <c r="AA187" s="22"/>
-      <c r="AB187" s="22"/>
-      <c r="AC187" s="22"/>
-      <c r="AD187" s="22"/>
-      <c r="AE187" s="22"/>
-      <c r="AF187" s="22"/>
-      <c r="AG187" s="22"/>
-      <c r="AH187" s="22"/>
-      <c r="AI187" s="22"/>
-      <c r="AJ187" s="22"/>
-      <c r="AK187" s="22"/>
-      <c r="AL187" s="22"/>
-      <c r="AM187" s="22"/>
-      <c r="AN187" s="22"/>
-      <c r="AO187" s="22"/>
-      <c r="AP187" s="22"/>
-      <c r="AQ187" s="22"/>
-      <c r="AR187" s="22"/>
-      <c r="AS187" s="22"/>
-      <c r="AT187" s="22"/>
-      <c r="AU187" s="22"/>
-      <c r="AV187" s="22"/>
-      <c r="AW187" s="22"/>
-      <c r="AX187" s="22"/>
-      <c r="AY187" s="22"/>
-      <c r="AZ187" s="22"/>
-      <c r="BA187" s="22"/>
-      <c r="BB187" s="22"/>
-      <c r="BC187" s="22"/>
-      <c r="BD187" s="22"/>
-      <c r="BE187" s="22"/>
-      <c r="BF187" s="22"/>
-      <c r="BG187" s="22"/>
-      <c r="BH187" s="22"/>
-      <c r="BI187" s="22"/>
-      <c r="BJ187" s="22"/>
-      <c r="BK187" s="22"/>
-      <c r="BL187" s="22"/>
-      <c r="BM187" s="22"/>
-      <c r="BN187" s="22"/>
-      <c r="BO187" s="22"/>
-      <c r="BP187" s="22"/>
-      <c r="BQ187" s="22"/>
-      <c r="BR187" s="22"/>
-      <c r="BS187" s="22"/>
+      <c r="I187" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="188" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>430</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C188" s="22"/>
-      <c r="D188" s="18">
+      <c r="D188" s="5">
         <v>300</v>
       </c>
-      <c r="E188" s="22">
-        <v>48</v>
-      </c>
-      <c r="F188" s="22">
-        <v>48</v>
-      </c>
-      <c r="G188" s="22">
+      <c r="E188">
+        <v>48</v>
+      </c>
+      <c r="F188">
+        <v>48</v>
+      </c>
+      <c r="G188">
         <v>0</v>
       </c>
-      <c r="H188" s="22" t="str">
+      <c r="H188" t="str">
         <f t="shared" si="2"/>
         <v>A0187.jpg</v>
       </c>
-      <c r="I188" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J188" s="22"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="22"/>
-      <c r="M188" s="22"/>
-      <c r="N188" s="22"/>
-      <c r="O188" s="22"/>
-      <c r="P188" s="22"/>
-      <c r="Q188" s="22"/>
-      <c r="R188" s="22"/>
-      <c r="S188" s="22"/>
-      <c r="T188" s="22"/>
-      <c r="U188" s="22"/>
-      <c r="V188" s="22"/>
-      <c r="W188" s="22"/>
-      <c r="X188" s="22"/>
-      <c r="Y188" s="22"/>
-      <c r="Z188" s="22"/>
-      <c r="AA188" s="22"/>
-      <c r="AB188" s="22"/>
-      <c r="AC188" s="22"/>
-      <c r="AD188" s="22"/>
-      <c r="AE188" s="22"/>
-      <c r="AF188" s="22"/>
-      <c r="AG188" s="22"/>
-      <c r="AH188" s="22"/>
-      <c r="AI188" s="22"/>
-      <c r="AJ188" s="22"/>
-      <c r="AK188" s="22"/>
-      <c r="AL188" s="22"/>
-      <c r="AM188" s="22"/>
-      <c r="AN188" s="22"/>
-      <c r="AO188" s="22"/>
-      <c r="AP188" s="22"/>
-      <c r="AQ188" s="22"/>
-      <c r="AR188" s="22"/>
-      <c r="AS188" s="22"/>
-      <c r="AT188" s="22"/>
-      <c r="AU188" s="22"/>
-      <c r="AV188" s="22"/>
-      <c r="AW188" s="22"/>
-      <c r="AX188" s="22"/>
-      <c r="AY188" s="22"/>
-      <c r="AZ188" s="22"/>
-      <c r="BA188" s="22"/>
-      <c r="BB188" s="22"/>
-      <c r="BC188" s="22"/>
-      <c r="BD188" s="22"/>
-      <c r="BE188" s="22"/>
-      <c r="BF188" s="22"/>
-      <c r="BG188" s="22"/>
-      <c r="BH188" s="22"/>
-      <c r="BI188" s="22"/>
-      <c r="BJ188" s="22"/>
-      <c r="BK188" s="22"/>
-      <c r="BL188" s="22"/>
-      <c r="BM188" s="22"/>
-      <c r="BN188" s="22"/>
-      <c r="BO188" s="22"/>
-      <c r="BP188" s="22"/>
-      <c r="BQ188" s="22"/>
-      <c r="BR188" s="22"/>
-      <c r="BS188" s="22"/>
+      <c r="I188" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="189" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
@@ -7876,89 +7627,89 @@
       <c r="B189" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C189" s="22"/>
-      <c r="D189" s="18">
+      <c r="C189"/>
+      <c r="D189" s="5">
         <v>250</v>
       </c>
-      <c r="E189" s="22">
+      <c r="E189">
         <f>F189</f>
         <v>60</v>
       </c>
-      <c r="F189" s="22">
+      <c r="F189">
         <v>60</v>
       </c>
-      <c r="G189" s="22">
+      <c r="G189">
         <v>300</v>
       </c>
-      <c r="H189" s="22" t="str">
+      <c r="H189" t="str">
         <f t="shared" si="2"/>
         <v>A0188.jpg</v>
       </c>
-      <c r="I189" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J189" s="22"/>
-      <c r="K189" s="22"/>
-      <c r="L189" s="22"/>
-      <c r="M189" s="22"/>
-      <c r="N189" s="22"/>
-      <c r="O189" s="22"/>
-      <c r="P189" s="22"/>
-      <c r="Q189" s="22"/>
-      <c r="R189" s="22"/>
-      <c r="S189" s="22"/>
-      <c r="T189" s="22"/>
-      <c r="U189" s="22"/>
-      <c r="V189" s="22"/>
-      <c r="W189" s="22"/>
-      <c r="X189" s="22"/>
-      <c r="Y189" s="22"/>
-      <c r="Z189" s="22"/>
-      <c r="AA189" s="22"/>
-      <c r="AB189" s="22"/>
-      <c r="AC189" s="22"/>
-      <c r="AD189" s="22"/>
-      <c r="AE189" s="22"/>
-      <c r="AF189" s="22"/>
-      <c r="AG189" s="22"/>
-      <c r="AH189" s="22"/>
-      <c r="AI189" s="22"/>
-      <c r="AJ189" s="22"/>
-      <c r="AK189" s="22"/>
-      <c r="AL189" s="22"/>
-      <c r="AM189" s="22"/>
-      <c r="AN189" s="22"/>
-      <c r="AO189" s="22"/>
-      <c r="AP189" s="22"/>
-      <c r="AQ189" s="22"/>
-      <c r="AR189" s="22"/>
-      <c r="AS189" s="22"/>
-      <c r="AT189" s="22"/>
-      <c r="AU189" s="22"/>
-      <c r="AV189" s="22"/>
-      <c r="AW189" s="22"/>
-      <c r="AX189" s="22"/>
-      <c r="AY189" s="22"/>
-      <c r="AZ189" s="22"/>
-      <c r="BA189" s="22"/>
-      <c r="BB189" s="22"/>
-      <c r="BC189" s="22"/>
-      <c r="BD189" s="22"/>
-      <c r="BE189" s="22"/>
-      <c r="BF189" s="22"/>
-      <c r="BG189" s="22"/>
-      <c r="BH189" s="22"/>
-      <c r="BI189" s="22"/>
-      <c r="BJ189" s="22"/>
-      <c r="BK189" s="22"/>
-      <c r="BL189" s="22"/>
-      <c r="BM189" s="22"/>
-      <c r="BN189" s="22"/>
-      <c r="BO189" s="22"/>
-      <c r="BP189" s="22"/>
-      <c r="BQ189" s="22"/>
-      <c r="BR189" s="22"/>
-      <c r="BS189" s="22"/>
+      <c r="I189" t="s">
+        <v>48</v>
+      </c>
+      <c r="J189"/>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
+      <c r="O189"/>
+      <c r="P189"/>
+      <c r="Q189"/>
+      <c r="R189"/>
+      <c r="S189"/>
+      <c r="T189"/>
+      <c r="U189"/>
+      <c r="V189"/>
+      <c r="W189"/>
+      <c r="X189"/>
+      <c r="Y189"/>
+      <c r="Z189"/>
+      <c r="AA189"/>
+      <c r="AB189"/>
+      <c r="AC189"/>
+      <c r="AD189"/>
+      <c r="AE189"/>
+      <c r="AF189"/>
+      <c r="AG189"/>
+      <c r="AH189"/>
+      <c r="AI189"/>
+      <c r="AJ189"/>
+      <c r="AK189"/>
+      <c r="AL189"/>
+      <c r="AM189"/>
+      <c r="AN189"/>
+      <c r="AO189"/>
+      <c r="AP189"/>
+      <c r="AQ189"/>
+      <c r="AR189"/>
+      <c r="AS189"/>
+      <c r="AT189"/>
+      <c r="AU189"/>
+      <c r="AV189"/>
+      <c r="AW189"/>
+      <c r="AX189"/>
+      <c r="AY189"/>
+      <c r="AZ189"/>
+      <c r="BA189"/>
+      <c r="BB189"/>
+      <c r="BC189"/>
+      <c r="BD189"/>
+      <c r="BE189"/>
+      <c r="BF189"/>
+      <c r="BG189"/>
+      <c r="BH189"/>
+      <c r="BI189"/>
+      <c r="BJ189"/>
+      <c r="BK189"/>
+      <c r="BL189"/>
+      <c r="BM189"/>
+      <c r="BN189"/>
+      <c r="BO189"/>
+      <c r="BP189"/>
+      <c r="BQ189"/>
+      <c r="BR189"/>
+      <c r="BS189"/>
     </row>
     <row r="190" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
@@ -7967,88 +7718,88 @@
       <c r="B190" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C190" s="22"/>
-      <c r="D190" s="18">
+      <c r="C190"/>
+      <c r="D190" s="5">
         <v>700</v>
       </c>
-      <c r="E190" s="22">
+      <c r="E190">
         <v>10</v>
       </c>
-      <c r="F190" s="22">
-        <v>1</v>
-      </c>
-      <c r="G190" s="23">
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
         <v>300</v>
       </c>
-      <c r="H190" s="22" t="str">
+      <c r="H190" t="str">
         <f t="shared" si="2"/>
         <v>A0189.jpg</v>
       </c>
-      <c r="I190" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J190" s="22"/>
-      <c r="K190" s="22"/>
-      <c r="L190" s="22"/>
-      <c r="M190" s="22"/>
-      <c r="N190" s="22"/>
-      <c r="O190" s="22"/>
-      <c r="P190" s="22"/>
-      <c r="Q190" s="22"/>
-      <c r="R190" s="22"/>
-      <c r="S190" s="22"/>
-      <c r="T190" s="22"/>
-      <c r="U190" s="22"/>
-      <c r="V190" s="22"/>
-      <c r="W190" s="22"/>
-      <c r="X190" s="22"/>
-      <c r="Y190" s="22"/>
-      <c r="Z190" s="22"/>
-      <c r="AA190" s="22"/>
-      <c r="AB190" s="22"/>
-      <c r="AC190" s="22"/>
-      <c r="AD190" s="22"/>
-      <c r="AE190" s="22"/>
-      <c r="AF190" s="22"/>
-      <c r="AG190" s="22"/>
-      <c r="AH190" s="22"/>
-      <c r="AI190" s="22"/>
-      <c r="AJ190" s="22"/>
-      <c r="AK190" s="22"/>
-      <c r="AL190" s="22"/>
-      <c r="AM190" s="22"/>
-      <c r="AN190" s="22"/>
-      <c r="AO190" s="22"/>
-      <c r="AP190" s="22"/>
-      <c r="AQ190" s="22"/>
-      <c r="AR190" s="22"/>
-      <c r="AS190" s="22"/>
-      <c r="AT190" s="22"/>
-      <c r="AU190" s="22"/>
-      <c r="AV190" s="22"/>
-      <c r="AW190" s="22"/>
-      <c r="AX190" s="22"/>
-      <c r="AY190" s="22"/>
-      <c r="AZ190" s="22"/>
-      <c r="BA190" s="22"/>
-      <c r="BB190" s="22"/>
-      <c r="BC190" s="22"/>
-      <c r="BD190" s="22"/>
-      <c r="BE190" s="22"/>
-      <c r="BF190" s="22"/>
-      <c r="BG190" s="22"/>
-      <c r="BH190" s="22"/>
-      <c r="BI190" s="22"/>
-      <c r="BJ190" s="22"/>
-      <c r="BK190" s="22"/>
-      <c r="BL190" s="22"/>
-      <c r="BM190" s="22"/>
-      <c r="BN190" s="22"/>
-      <c r="BO190" s="22"/>
-      <c r="BP190" s="22"/>
-      <c r="BQ190" s="22"/>
-      <c r="BR190" s="22"/>
-      <c r="BS190" s="22"/>
+      <c r="I190" t="s">
+        <v>48</v>
+      </c>
+      <c r="J190"/>
+      <c r="K190"/>
+      <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
+      <c r="O190"/>
+      <c r="P190"/>
+      <c r="Q190"/>
+      <c r="R190"/>
+      <c r="S190"/>
+      <c r="T190"/>
+      <c r="U190"/>
+      <c r="V190"/>
+      <c r="W190"/>
+      <c r="X190"/>
+      <c r="Y190"/>
+      <c r="Z190"/>
+      <c r="AA190"/>
+      <c r="AB190"/>
+      <c r="AC190"/>
+      <c r="AD190"/>
+      <c r="AE190"/>
+      <c r="AF190"/>
+      <c r="AG190"/>
+      <c r="AH190"/>
+      <c r="AI190"/>
+      <c r="AJ190"/>
+      <c r="AK190"/>
+      <c r="AL190"/>
+      <c r="AM190"/>
+      <c r="AN190"/>
+      <c r="AO190"/>
+      <c r="AP190"/>
+      <c r="AQ190"/>
+      <c r="AR190"/>
+      <c r="AS190"/>
+      <c r="AT190"/>
+      <c r="AU190"/>
+      <c r="AV190"/>
+      <c r="AW190"/>
+      <c r="AX190"/>
+      <c r="AY190"/>
+      <c r="AZ190"/>
+      <c r="BA190"/>
+      <c r="BB190"/>
+      <c r="BC190"/>
+      <c r="BD190"/>
+      <c r="BE190"/>
+      <c r="BF190"/>
+      <c r="BG190"/>
+      <c r="BH190"/>
+      <c r="BI190"/>
+      <c r="BJ190"/>
+      <c r="BK190"/>
+      <c r="BL190"/>
+      <c r="BM190"/>
+      <c r="BN190"/>
+      <c r="BO190"/>
+      <c r="BP190"/>
+      <c r="BQ190"/>
+      <c r="BR190"/>
+      <c r="BS190"/>
     </row>
     <row r="191" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
@@ -8057,89 +7808,89 @@
       <c r="B191" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C191" s="22"/>
-      <c r="D191" s="18">
+      <c r="C191"/>
+      <c r="D191" s="5">
         <v>3000</v>
       </c>
-      <c r="E191" s="22">
+      <c r="E191">
         <f t="shared" ref="E191:E218" si="3">F191</f>
         <v>12</v>
       </c>
-      <c r="F191" s="22">
-        <v>12</v>
-      </c>
-      <c r="G191" s="23">
+      <c r="F191">
+        <v>12</v>
+      </c>
+      <c r="G191">
         <v>150</v>
       </c>
-      <c r="H191" s="22" t="str">
+      <c r="H191" t="str">
         <f t="shared" si="2"/>
         <v>A0190.jpg</v>
       </c>
-      <c r="I191" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J191" s="22"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="22"/>
-      <c r="M191" s="22"/>
-      <c r="N191" s="22"/>
-      <c r="O191" s="22"/>
-      <c r="P191" s="22"/>
-      <c r="Q191" s="22"/>
-      <c r="R191" s="22"/>
-      <c r="S191" s="22"/>
-      <c r="T191" s="22"/>
-      <c r="U191" s="22"/>
-      <c r="V191" s="22"/>
-      <c r="W191" s="22"/>
-      <c r="X191" s="22"/>
-      <c r="Y191" s="22"/>
-      <c r="Z191" s="22"/>
-      <c r="AA191" s="22"/>
-      <c r="AB191" s="22"/>
-      <c r="AC191" s="22"/>
-      <c r="AD191" s="22"/>
-      <c r="AE191" s="22"/>
-      <c r="AF191" s="22"/>
-      <c r="AG191" s="22"/>
-      <c r="AH191" s="22"/>
-      <c r="AI191" s="22"/>
-      <c r="AJ191" s="22"/>
-      <c r="AK191" s="22"/>
-      <c r="AL191" s="22"/>
-      <c r="AM191" s="22"/>
-      <c r="AN191" s="22"/>
-      <c r="AO191" s="22"/>
-      <c r="AP191" s="22"/>
-      <c r="AQ191" s="22"/>
-      <c r="AR191" s="22"/>
-      <c r="AS191" s="22"/>
-      <c r="AT191" s="22"/>
-      <c r="AU191" s="22"/>
-      <c r="AV191" s="22"/>
-      <c r="AW191" s="22"/>
-      <c r="AX191" s="22"/>
-      <c r="AY191" s="22"/>
-      <c r="AZ191" s="22"/>
-      <c r="BA191" s="22"/>
-      <c r="BB191" s="22"/>
-      <c r="BC191" s="22"/>
-      <c r="BD191" s="22"/>
-      <c r="BE191" s="22"/>
-      <c r="BF191" s="22"/>
-      <c r="BG191" s="22"/>
-      <c r="BH191" s="22"/>
-      <c r="BI191" s="22"/>
-      <c r="BJ191" s="22"/>
-      <c r="BK191" s="22"/>
-      <c r="BL191" s="22"/>
-      <c r="BM191" s="22"/>
-      <c r="BN191" s="22"/>
-      <c r="BO191" s="22"/>
-      <c r="BP191" s="22"/>
-      <c r="BQ191" s="22"/>
-      <c r="BR191" s="22"/>
-      <c r="BS191" s="22"/>
+      <c r="I191" t="s">
+        <v>48</v>
+      </c>
+      <c r="J191"/>
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
+      <c r="O191"/>
+      <c r="P191"/>
+      <c r="Q191"/>
+      <c r="R191"/>
+      <c r="S191"/>
+      <c r="T191"/>
+      <c r="U191"/>
+      <c r="V191"/>
+      <c r="W191"/>
+      <c r="X191"/>
+      <c r="Y191"/>
+      <c r="Z191"/>
+      <c r="AA191"/>
+      <c r="AB191"/>
+      <c r="AC191"/>
+      <c r="AD191"/>
+      <c r="AE191"/>
+      <c r="AF191"/>
+      <c r="AG191"/>
+      <c r="AH191"/>
+      <c r="AI191"/>
+      <c r="AJ191"/>
+      <c r="AK191"/>
+      <c r="AL191"/>
+      <c r="AM191"/>
+      <c r="AN191"/>
+      <c r="AO191"/>
+      <c r="AP191"/>
+      <c r="AQ191"/>
+      <c r="AR191"/>
+      <c r="AS191"/>
+      <c r="AT191"/>
+      <c r="AU191"/>
+      <c r="AV191"/>
+      <c r="AW191"/>
+      <c r="AX191"/>
+      <c r="AY191"/>
+      <c r="AZ191"/>
+      <c r="BA191"/>
+      <c r="BB191"/>
+      <c r="BC191"/>
+      <c r="BD191"/>
+      <c r="BE191"/>
+      <c r="BF191"/>
+      <c r="BG191"/>
+      <c r="BH191"/>
+      <c r="BI191"/>
+      <c r="BJ191"/>
+      <c r="BK191"/>
+      <c r="BL191"/>
+      <c r="BM191"/>
+      <c r="BN191"/>
+      <c r="BO191"/>
+      <c r="BP191"/>
+      <c r="BQ191"/>
+      <c r="BR191"/>
+      <c r="BS191"/>
     </row>
     <row r="192" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
@@ -8148,89 +7899,89 @@
       <c r="B192" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C192" s="22"/>
-      <c r="D192" s="18">
+      <c r="C192"/>
+      <c r="D192" s="5">
         <v>405</v>
       </c>
-      <c r="E192" s="22">
+      <c r="E192">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="F192" s="22">
+      <c r="F192">
         <v>40</v>
       </c>
-      <c r="G192" s="23">
+      <c r="G192">
         <v>280</v>
       </c>
-      <c r="H192" s="22" t="str">
+      <c r="H192" t="str">
         <f t="shared" si="2"/>
         <v>A0191.jpg</v>
       </c>
-      <c r="I192" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J192" s="22"/>
-      <c r="K192" s="22"/>
-      <c r="L192" s="22"/>
-      <c r="M192" s="22"/>
-      <c r="N192" s="22"/>
-      <c r="O192" s="22"/>
-      <c r="P192" s="22"/>
-      <c r="Q192" s="22"/>
-      <c r="R192" s="22"/>
-      <c r="S192" s="22"/>
-      <c r="T192" s="22"/>
-      <c r="U192" s="22"/>
-      <c r="V192" s="22"/>
-      <c r="W192" s="22"/>
-      <c r="X192" s="22"/>
-      <c r="Y192" s="22"/>
-      <c r="Z192" s="22"/>
-      <c r="AA192" s="22"/>
-      <c r="AB192" s="22"/>
-      <c r="AC192" s="22"/>
-      <c r="AD192" s="22"/>
-      <c r="AE192" s="22"/>
-      <c r="AF192" s="22"/>
-      <c r="AG192" s="22"/>
-      <c r="AH192" s="22"/>
-      <c r="AI192" s="22"/>
-      <c r="AJ192" s="22"/>
-      <c r="AK192" s="22"/>
-      <c r="AL192" s="22"/>
-      <c r="AM192" s="22"/>
-      <c r="AN192" s="22"/>
-      <c r="AO192" s="22"/>
-      <c r="AP192" s="22"/>
-      <c r="AQ192" s="22"/>
-      <c r="AR192" s="22"/>
-      <c r="AS192" s="22"/>
-      <c r="AT192" s="22"/>
-      <c r="AU192" s="22"/>
-      <c r="AV192" s="22"/>
-      <c r="AW192" s="22"/>
-      <c r="AX192" s="22"/>
-      <c r="AY192" s="22"/>
-      <c r="AZ192" s="22"/>
-      <c r="BA192" s="22"/>
-      <c r="BB192" s="22"/>
-      <c r="BC192" s="22"/>
-      <c r="BD192" s="22"/>
-      <c r="BE192" s="22"/>
-      <c r="BF192" s="22"/>
-      <c r="BG192" s="22"/>
-      <c r="BH192" s="22"/>
-      <c r="BI192" s="22"/>
-      <c r="BJ192" s="22"/>
-      <c r="BK192" s="22"/>
-      <c r="BL192" s="22"/>
-      <c r="BM192" s="22"/>
-      <c r="BN192" s="22"/>
-      <c r="BO192" s="22"/>
-      <c r="BP192" s="22"/>
-      <c r="BQ192" s="22"/>
-      <c r="BR192" s="22"/>
-      <c r="BS192" s="22"/>
+      <c r="I192" t="s">
+        <v>47</v>
+      </c>
+      <c r="J192"/>
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
+      <c r="O192"/>
+      <c r="P192"/>
+      <c r="Q192"/>
+      <c r="R192"/>
+      <c r="S192"/>
+      <c r="T192"/>
+      <c r="U192"/>
+      <c r="V192"/>
+      <c r="W192"/>
+      <c r="X192"/>
+      <c r="Y192"/>
+      <c r="Z192"/>
+      <c r="AA192"/>
+      <c r="AB192"/>
+      <c r="AC192"/>
+      <c r="AD192"/>
+      <c r="AE192"/>
+      <c r="AF192"/>
+      <c r="AG192"/>
+      <c r="AH192"/>
+      <c r="AI192"/>
+      <c r="AJ192"/>
+      <c r="AK192"/>
+      <c r="AL192"/>
+      <c r="AM192"/>
+      <c r="AN192"/>
+      <c r="AO192"/>
+      <c r="AP192"/>
+      <c r="AQ192"/>
+      <c r="AR192"/>
+      <c r="AS192"/>
+      <c r="AT192"/>
+      <c r="AU192"/>
+      <c r="AV192"/>
+      <c r="AW192"/>
+      <c r="AX192"/>
+      <c r="AY192"/>
+      <c r="AZ192"/>
+      <c r="BA192"/>
+      <c r="BB192"/>
+      <c r="BC192"/>
+      <c r="BD192"/>
+      <c r="BE192"/>
+      <c r="BF192"/>
+      <c r="BG192"/>
+      <c r="BH192"/>
+      <c r="BI192"/>
+      <c r="BJ192"/>
+      <c r="BK192"/>
+      <c r="BL192"/>
+      <c r="BM192"/>
+      <c r="BN192"/>
+      <c r="BO192"/>
+      <c r="BP192"/>
+      <c r="BQ192"/>
+      <c r="BR192"/>
+      <c r="BS192"/>
     </row>
     <row r="193" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
@@ -8239,89 +7990,89 @@
       <c r="B193" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C193" s="22"/>
-      <c r="D193" s="18">
+      <c r="C193"/>
+      <c r="D193" s="5">
         <v>675</v>
       </c>
-      <c r="E193" s="22">
+      <c r="E193">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F193" s="22">
+      <c r="F193">
         <v>15</v>
       </c>
-      <c r="G193" s="23">
+      <c r="G193">
         <v>150</v>
       </c>
-      <c r="H193" s="22" t="str">
+      <c r="H193" t="str">
         <f t="shared" si="2"/>
         <v>A0192.jpg</v>
       </c>
-      <c r="I193" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J193" s="22"/>
-      <c r="K193" s="22"/>
-      <c r="L193" s="22"/>
-      <c r="M193" s="22"/>
-      <c r="N193" s="22"/>
-      <c r="O193" s="22"/>
-      <c r="P193" s="22"/>
-      <c r="Q193" s="22"/>
-      <c r="R193" s="22"/>
-      <c r="S193" s="22"/>
-      <c r="T193" s="22"/>
-      <c r="U193" s="22"/>
-      <c r="V193" s="22"/>
-      <c r="W193" s="22"/>
-      <c r="X193" s="22"/>
-      <c r="Y193" s="22"/>
-      <c r="Z193" s="22"/>
-      <c r="AA193" s="22"/>
-      <c r="AB193" s="22"/>
-      <c r="AC193" s="22"/>
-      <c r="AD193" s="22"/>
-      <c r="AE193" s="22"/>
-      <c r="AF193" s="22"/>
-      <c r="AG193" s="22"/>
-      <c r="AH193" s="22"/>
-      <c r="AI193" s="22"/>
-      <c r="AJ193" s="22"/>
-      <c r="AK193" s="22"/>
-      <c r="AL193" s="22"/>
-      <c r="AM193" s="22"/>
-      <c r="AN193" s="22"/>
-      <c r="AO193" s="22"/>
-      <c r="AP193" s="22"/>
-      <c r="AQ193" s="22"/>
-      <c r="AR193" s="22"/>
-      <c r="AS193" s="22"/>
-      <c r="AT193" s="22"/>
-      <c r="AU193" s="22"/>
-      <c r="AV193" s="22"/>
-      <c r="AW193" s="22"/>
-      <c r="AX193" s="22"/>
-      <c r="AY193" s="22"/>
-      <c r="AZ193" s="22"/>
-      <c r="BA193" s="22"/>
-      <c r="BB193" s="22"/>
-      <c r="BC193" s="22"/>
-      <c r="BD193" s="22"/>
-      <c r="BE193" s="22"/>
-      <c r="BF193" s="22"/>
-      <c r="BG193" s="22"/>
-      <c r="BH193" s="22"/>
-      <c r="BI193" s="22"/>
-      <c r="BJ193" s="22"/>
-      <c r="BK193" s="22"/>
-      <c r="BL193" s="22"/>
-      <c r="BM193" s="22"/>
-      <c r="BN193" s="22"/>
-      <c r="BO193" s="22"/>
-      <c r="BP193" s="22"/>
-      <c r="BQ193" s="22"/>
-      <c r="BR193" s="22"/>
-      <c r="BS193" s="22"/>
+      <c r="I193" t="s">
+        <v>48</v>
+      </c>
+      <c r="J193"/>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+      <c r="O193"/>
+      <c r="P193"/>
+      <c r="Q193"/>
+      <c r="R193"/>
+      <c r="S193"/>
+      <c r="T193"/>
+      <c r="U193"/>
+      <c r="V193"/>
+      <c r="W193"/>
+      <c r="X193"/>
+      <c r="Y193"/>
+      <c r="Z193"/>
+      <c r="AA193"/>
+      <c r="AB193"/>
+      <c r="AC193"/>
+      <c r="AD193"/>
+      <c r="AE193"/>
+      <c r="AF193"/>
+      <c r="AG193"/>
+      <c r="AH193"/>
+      <c r="AI193"/>
+      <c r="AJ193"/>
+      <c r="AK193"/>
+      <c r="AL193"/>
+      <c r="AM193"/>
+      <c r="AN193"/>
+      <c r="AO193"/>
+      <c r="AP193"/>
+      <c r="AQ193"/>
+      <c r="AR193"/>
+      <c r="AS193"/>
+      <c r="AT193"/>
+      <c r="AU193"/>
+      <c r="AV193"/>
+      <c r="AW193"/>
+      <c r="AX193"/>
+      <c r="AY193"/>
+      <c r="AZ193"/>
+      <c r="BA193"/>
+      <c r="BB193"/>
+      <c r="BC193"/>
+      <c r="BD193"/>
+      <c r="BE193"/>
+      <c r="BF193"/>
+      <c r="BG193"/>
+      <c r="BH193"/>
+      <c r="BI193"/>
+      <c r="BJ193"/>
+      <c r="BK193"/>
+      <c r="BL193"/>
+      <c r="BM193"/>
+      <c r="BN193"/>
+      <c r="BO193"/>
+      <c r="BP193"/>
+      <c r="BQ193"/>
+      <c r="BR193"/>
+      <c r="BS193"/>
     </row>
     <row r="194" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -8330,87 +8081,26 @@
       <c r="B194" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C194" s="22"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="22">
+      <c r="D194" s="5">
+        <v>0</v>
+      </c>
+      <c r="E194">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F194" s="22">
-        <v>12</v>
-      </c>
-      <c r="G194" s="22">
+      <c r="F194">
+        <v>12</v>
+      </c>
+      <c r="G194">
         <v>0</v>
       </c>
-      <c r="H194" s="22" t="str">
+      <c r="H194" t="str">
         <f t="shared" si="2"/>
         <v>A0193.jpg</v>
       </c>
-      <c r="I194" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J194" s="22"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="22"/>
-      <c r="M194" s="22"/>
-      <c r="N194" s="22"/>
-      <c r="O194" s="22"/>
-      <c r="P194" s="22"/>
-      <c r="Q194" s="22"/>
-      <c r="R194" s="22"/>
-      <c r="S194" s="22"/>
-      <c r="T194" s="22"/>
-      <c r="U194" s="22"/>
-      <c r="V194" s="22"/>
-      <c r="W194" s="22"/>
-      <c r="X194" s="22"/>
-      <c r="Y194" s="22"/>
-      <c r="Z194" s="22"/>
-      <c r="AA194" s="22"/>
-      <c r="AB194" s="22"/>
-      <c r="AC194" s="22"/>
-      <c r="AD194" s="22"/>
-      <c r="AE194" s="22"/>
-      <c r="AF194" s="22"/>
-      <c r="AG194" s="22"/>
-      <c r="AH194" s="22"/>
-      <c r="AI194" s="22"/>
-      <c r="AJ194" s="22"/>
-      <c r="AK194" s="22"/>
-      <c r="AL194" s="22"/>
-      <c r="AM194" s="22"/>
-      <c r="AN194" s="22"/>
-      <c r="AO194" s="22"/>
-      <c r="AP194" s="22"/>
-      <c r="AQ194" s="22"/>
-      <c r="AR194" s="22"/>
-      <c r="AS194" s="22"/>
-      <c r="AT194" s="22"/>
-      <c r="AU194" s="22"/>
-      <c r="AV194" s="22"/>
-      <c r="AW194" s="22"/>
-      <c r="AX194" s="22"/>
-      <c r="AY194" s="22"/>
-      <c r="AZ194" s="22"/>
-      <c r="BA194" s="22"/>
-      <c r="BB194" s="22"/>
-      <c r="BC194" s="22"/>
-      <c r="BD194" s="22"/>
-      <c r="BE194" s="22"/>
-      <c r="BF194" s="22"/>
-      <c r="BG194" s="22"/>
-      <c r="BH194" s="22"/>
-      <c r="BI194" s="22"/>
-      <c r="BJ194" s="22"/>
-      <c r="BK194" s="22"/>
-      <c r="BL194" s="22"/>
-      <c r="BM194" s="22"/>
-      <c r="BN194" s="22"/>
-      <c r="BO194" s="22"/>
-      <c r="BP194" s="22"/>
-      <c r="BQ194" s="22"/>
-      <c r="BR194" s="22"/>
-      <c r="BS194" s="22"/>
+      <c r="I194" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="195" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -8428,14 +8118,14 @@
       <c r="F195">
         <v>1</v>
       </c>
-      <c r="G195" s="22">
+      <c r="G195">
         <v>50</v>
       </c>
-      <c r="H195" s="22" t="str">
+      <c r="H195" t="str">
         <f t="shared" si="2"/>
         <v>A0194.jpg</v>
       </c>
-      <c r="I195" s="22" t="s">
+      <c r="I195" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8456,14 +8146,14 @@
       <c r="F196">
         <v>1</v>
       </c>
-      <c r="G196" s="22">
+      <c r="G196">
         <v>50</v>
       </c>
-      <c r="H196" s="22" t="str">
+      <c r="H196" t="str">
         <f t="shared" si="2"/>
         <v>A0195.jpg</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="I196" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8486,11 +8176,11 @@
       <c r="G197">
         <v>150</v>
       </c>
-      <c r="H197" s="22" t="str">
+      <c r="H197" t="str">
         <f t="shared" si="2"/>
         <v>A0196.jpg</v>
       </c>
-      <c r="I197" s="22" t="s">
+      <c r="I197" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8513,11 +8203,11 @@
       <c r="G198">
         <v>80</v>
       </c>
-      <c r="H198" s="22" t="str">
+      <c r="H198" t="str">
         <f t="shared" si="2"/>
         <v>A0197.jpg</v>
       </c>
-      <c r="I198" s="22" t="s">
+      <c r="I198" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8540,11 +8230,11 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="H199" s="22" t="str">
+      <c r="H199" t="str">
         <f t="shared" si="2"/>
         <v>A0198.jpg</v>
       </c>
-      <c r="I199" s="22" t="s">
+      <c r="I199" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8567,11 +8257,11 @@
       <c r="G200">
         <v>200</v>
       </c>
-      <c r="H200" s="22" t="str">
+      <c r="H200" t="str">
         <f t="shared" si="2"/>
         <v>A0199.jpg</v>
       </c>
-      <c r="I200" s="22" t="s">
+      <c r="I200" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8594,11 +8284,11 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="H201" s="22" t="str">
+      <c r="H201" t="str">
         <f t="shared" si="2"/>
         <v>A0200.jpg</v>
       </c>
-      <c r="I201" s="22" t="s">
+      <c r="I201" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8622,11 +8312,11 @@
       <c r="G202">
         <v>300</v>
       </c>
-      <c r="H202" s="22" t="str">
+      <c r="H202" t="str">
         <f t="shared" si="2"/>
         <v>A0201.jpg</v>
       </c>
-      <c r="I202" s="22" t="s">
+      <c r="I202" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8649,11 +8339,11 @@
       <c r="G203">
         <v>300</v>
       </c>
-      <c r="H203" s="22" t="str">
+      <c r="H203" t="str">
         <f t="shared" si="2"/>
         <v>A0202.jpg</v>
       </c>
-      <c r="I203" s="22" t="s">
+      <c r="I203" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8676,11 +8366,11 @@
       <c r="G204">
         <v>100</v>
       </c>
-      <c r="H204" s="22" t="str">
+      <c r="H204" t="str">
         <f t="shared" si="2"/>
         <v>A0203.jpg</v>
       </c>
-      <c r="I204" s="22" t="s">
+      <c r="I204" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8703,11 +8393,11 @@
       <c r="G205">
         <v>0</v>
       </c>
-      <c r="H205" s="22" t="str">
+      <c r="H205" t="str">
         <f t="shared" si="2"/>
         <v>A0204.jpg</v>
       </c>
-      <c r="I205" s="22" t="s">
+      <c r="I205" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8730,11 +8420,11 @@
       <c r="G206">
         <v>100</v>
       </c>
-      <c r="H206" s="22" t="str">
+      <c r="H206" t="str">
         <f t="shared" si="2"/>
         <v>A0205.jpg</v>
       </c>
-      <c r="I206" s="22" t="s">
+      <c r="I206" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8758,11 +8448,11 @@
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="H207" s="22" t="str">
+      <c r="H207" t="str">
         <f t="shared" si="2"/>
         <v>A0206.jpg</v>
       </c>
-      <c r="I207" s="22" t="s">
+      <c r="I207" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8785,11 +8475,11 @@
       <c r="G208">
         <v>300</v>
       </c>
-      <c r="H208" s="22" t="str">
+      <c r="H208" t="str">
         <f t="shared" si="2"/>
         <v>A0207.jpg</v>
       </c>
-      <c r="I208" s="22" t="s">
+      <c r="I208" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8812,11 +8502,11 @@
       <c r="G209">
         <v>300</v>
       </c>
-      <c r="H209" s="22" t="str">
+      <c r="H209" t="str">
         <f t="shared" si="2"/>
         <v>A0208.jpg</v>
       </c>
-      <c r="I209" s="22" t="s">
+      <c r="I209" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8839,11 +8529,11 @@
       <c r="G210">
         <v>300</v>
       </c>
-      <c r="H210" s="22" t="str">
+      <c r="H210" t="str">
         <f t="shared" ref="H210:H221" si="4">_xlfn.CONCAT(A210,".jpg")</f>
         <v>A0209.jpg</v>
       </c>
-      <c r="I210" s="22" t="s">
+      <c r="I210" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8866,11 +8556,11 @@
       <c r="G211">
         <v>50</v>
       </c>
-      <c r="H211" s="22" t="str">
+      <c r="H211" t="str">
         <f t="shared" si="4"/>
         <v>A0210.jpg</v>
       </c>
-      <c r="I211" s="22" t="s">
+      <c r="I211" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8893,11 +8583,11 @@
       <c r="G212">
         <v>50</v>
       </c>
-      <c r="H212" s="22" t="str">
+      <c r="H212" t="str">
         <f t="shared" si="4"/>
         <v>A0211.jpg</v>
       </c>
-      <c r="I212" s="22" t="s">
+      <c r="I212" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8920,11 +8610,11 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="H213" s="22" t="str">
+      <c r="H213" t="str">
         <f t="shared" si="4"/>
         <v>A0212.jpg</v>
       </c>
-      <c r="I213" s="22" t="s">
+      <c r="I213" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8947,11 +8637,11 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="H214" s="22" t="str">
+      <c r="H214" t="str">
         <f t="shared" si="4"/>
         <v>A0213.jpg</v>
       </c>
-      <c r="I214" s="22" t="s">
+      <c r="I214" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8974,11 +8664,11 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="H215" s="22" t="str">
+      <c r="H215" t="str">
         <f t="shared" si="4"/>
         <v>A0214.jpg</v>
       </c>
-      <c r="I215" s="22" t="s">
+      <c r="I215" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9001,11 +8691,11 @@
       <c r="G216">
         <v>100</v>
       </c>
-      <c r="H216" s="22" t="str">
+      <c r="H216" t="str">
         <f t="shared" si="4"/>
         <v>A0215.jpg</v>
       </c>
-      <c r="I216" s="22" t="s">
+      <c r="I216" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9028,11 +8718,11 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="H217" s="22" t="str">
+      <c r="H217" t="str">
         <f t="shared" si="4"/>
         <v>A0216.jpg</v>
       </c>
-      <c r="I217" s="22" t="s">
+      <c r="I217" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9043,6 +8733,9 @@
       <c r="B218" s="16" t="s">
         <v>423</v>
       </c>
+      <c r="D218" s="17">
+        <v>0</v>
+      </c>
       <c r="E218">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -9053,11 +8746,11 @@
       <c r="G218">
         <v>0</v>
       </c>
-      <c r="H218" s="22" t="str">
+      <c r="H218" t="str">
         <f t="shared" si="4"/>
         <v>A0217.jpg</v>
       </c>
-      <c r="I218" s="22" t="s">
+      <c r="I218" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9068,14 +8761,23 @@
       <c r="B219" s="16" t="s">
         <v>424</v>
       </c>
+      <c r="D219" s="17">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="H219" s="22" t="str">
+      <c r="H219" t="str">
         <f t="shared" si="4"/>
         <v>A0218.jpg</v>
       </c>
-      <c r="I219" s="22" t="s">
+      <c r="I219" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9086,14 +8788,23 @@
       <c r="B220" s="16" t="s">
         <v>425</v>
       </c>
+      <c r="D220" s="17">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="H220" s="22" t="str">
+      <c r="H220" t="str">
         <f t="shared" si="4"/>
         <v>A0219.jpg</v>
       </c>
-      <c r="I220" s="22" t="s">
+      <c r="I220" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9104,20 +8815,25 @@
       <c r="B221" s="16" t="s">
         <v>426</v>
       </c>
+      <c r="D221" s="17">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="H221" s="22" t="str">
+      <c r="H221" t="str">
         <f t="shared" si="4"/>
         <v>A0220.jpg</v>
       </c>
-      <c r="I221" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H222" s="22"/>
-      <c r="I222" s="22"/>
+      <c r="I221" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/064937db6ab52f6d/Desktop/web_carrito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="13_ncr:1_{25564EA4-A796-44CA-913D-60037C28D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B4C679-1A0A-45B8-8DBB-A511F094925A}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="13_ncr:1_{25564EA4-A796-44CA-913D-60037C28D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C562E3A5-FF8C-4551-BAF9-E6B6166ECDE6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C4B6B2E4-7AFF-45F0-BE4D-6E6AB0ED2031}"/>
   </bookViews>
@@ -1101,15 +1101,9 @@
     <t>A0162</t>
   </si>
   <si>
-    <t>Vaso de Brairots con Sorbete</t>
-  </si>
-  <si>
     <t>A0163</t>
   </si>
   <si>
-    <t>Vaso de Brairots con Pico</t>
-  </si>
-  <si>
     <t>A0164</t>
   </si>
   <si>
@@ -1438,6 +1432,12 @@
   </si>
   <si>
     <t>Mini dispenser de agua infantil</t>
+  </si>
+  <si>
+    <t>Vaso de Brainrots con Sorbete</t>
+  </si>
+  <si>
+    <t>Vaso de Brainrots con Pico</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1619,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0D8A5A-108C-466C-953C-70B57E87E4C5}">
   <dimension ref="A1:BS221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F219" sqref="F219"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3559,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="7">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="E55" s="7">
         <v>12</v>
@@ -3589,7 +3589,7 @@
         <v>17</v>
       </c>
       <c r="D56" s="7">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="E56" s="7">
         <v>12</v>
@@ -3619,7 +3619,7 @@
         <v>17</v>
       </c>
       <c r="D57" s="7">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="E57" s="7">
         <v>24</v>
@@ -3709,7 +3709,7 @@
         <v>17</v>
       </c>
       <c r="D60" s="7">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="E60" s="7">
         <v>12</v>
@@ -3739,7 +3739,7 @@
         <v>17</v>
       </c>
       <c r="D61" s="7">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="E61" s="7">
         <v>12</v>
@@ -3769,7 +3769,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="7">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="E62" s="7">
         <v>12</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="5">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H64" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4279,7 +4279,7 @@
         <v>17</v>
       </c>
       <c r="D79" s="2">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="E79" s="2">
         <v>5</v>
@@ -4339,7 +4339,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="2">
-        <v>890</v>
+        <v>950</v>
       </c>
       <c r="E81" s="2">
         <v>12</v>
@@ -4369,7 +4369,7 @@
         <v>17</v>
       </c>
       <c r="D82" s="2">
-        <v>890</v>
+        <v>950</v>
       </c>
       <c r="E82" s="2">
         <v>12</v>
@@ -4408,7 +4408,7 @@
         <v>20</v>
       </c>
       <c r="G83">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
@@ -4429,7 +4429,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="2">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="E84" s="2">
         <v>48</v>
@@ -4639,7 +4639,7 @@
         <v>17</v>
       </c>
       <c r="D91" s="2">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="E91" s="2">
         <v>20</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2">
-        <v>6120</v>
+        <v>6500</v>
       </c>
       <c r="E96" s="2">
         <v>3</v>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="2">
-        <v>6120</v>
+        <v>6500</v>
       </c>
       <c r="E97" s="2">
         <v>3</v>
@@ -4828,7 +4828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="2">
-        <v>6120</v>
+        <v>6500</v>
       </c>
       <c r="E98" s="2">
         <v>3</v>
@@ -6779,7 +6779,7 @@
         <v>354</v>
       </c>
       <c r="B163" t="s">
-        <v>355</v>
+        <v>466</v>
       </c>
       <c r="C163" t="s">
         <v>17</v>
@@ -6806,10 +6806,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B164" t="s">
-        <v>357</v>
+        <v>467</v>
       </c>
       <c r="C164" t="s">
         <v>17</v>
@@ -6836,10 +6836,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B165" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C165" t="s">
         <v>17</v>
@@ -6866,10 +6866,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B166" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
@@ -6896,10 +6896,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B167" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C167" t="s">
         <v>17</v>
@@ -6926,10 +6926,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B168" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C168" t="s">
         <v>17</v>
@@ -6956,10 +6956,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B169" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D169">
         <v>324</v>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B170" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D170">
         <v>1100</v>
@@ -7010,10 +7010,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B171" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D171">
         <v>33</v>
@@ -7037,10 +7037,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B172" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D172">
         <v>290</v>
@@ -7064,10 +7064,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B173" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D173">
         <v>1350</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B174" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D174">
         <v>150</v>
@@ -7118,10 +7118,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B175" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D175">
         <v>600</v>
@@ -7145,10 +7145,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B176" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D176">
         <v>270</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="177" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B177" s="15" t="s">
         <v>337</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="178" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B178" s="15" t="s">
         <v>338</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="179" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B179" s="15" t="s">
         <v>339</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="180" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B180" s="15" t="s">
         <v>340</v>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="181" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B181" s="15" t="s">
         <v>386</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>388</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7307,10 +7307,10 @@
     </row>
     <row r="182" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B182" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>389</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7334,10 +7334,10 @@
     </row>
     <row r="183" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B183" s="14" t="s">
         <v>390</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>392</v>
       </c>
       <c r="D183" s="5">
         <v>250</v>
@@ -7361,10 +7361,10 @@
     </row>
     <row r="184" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>389</v>
+      </c>
+      <c r="B184" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="B184" s="16" t="s">
-        <v>393</v>
       </c>
       <c r="D184" s="5">
         <v>200</v>
@@ -7388,10 +7388,10 @@
     </row>
     <row r="185" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C185"/>
       <c r="D185" s="5">
@@ -7478,10 +7478,10 @@
     </row>
     <row r="186" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C186"/>
       <c r="D186" s="5">
@@ -7568,10 +7568,10 @@
     </row>
     <row r="187" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D187" s="5">
         <v>810</v>
@@ -7595,10 +7595,10 @@
     </row>
     <row r="188" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D188" s="5">
         <v>300</v>
@@ -7622,10 +7622,10 @@
     </row>
     <row r="189" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C189"/>
       <c r="D189" s="5">
@@ -7713,10 +7713,10 @@
     </row>
     <row r="190" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C190"/>
       <c r="D190" s="5">
@@ -7803,10 +7803,10 @@
     </row>
     <row r="191" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C191"/>
       <c r="D191" s="5">
@@ -7894,10 +7894,10 @@
     </row>
     <row r="192" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C192"/>
       <c r="D192" s="5">
@@ -7985,10 +7985,10 @@
     </row>
     <row r="193" spans="1:71" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C193"/>
       <c r="D193" s="5">
@@ -8076,10 +8076,10 @@
     </row>
     <row r="194" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D194" s="5">
         <v>0</v>
@@ -8104,10 +8104,10 @@
     </row>
     <row r="195" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D195" s="5">
         <v>6500</v>
@@ -8131,10 +8131,10 @@
     </row>
     <row r="196" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D196" s="5">
         <v>21600</v>
@@ -8159,10 +8159,10 @@
     </row>
     <row r="197" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D197" s="5">
         <v>2100</v>
@@ -8186,10 +8186,10 @@
     </row>
     <row r="198" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D198" s="5">
         <v>9000</v>
@@ -8213,10 +8213,10 @@
     </row>
     <row r="199" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D199" s="5">
         <v>2500</v>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="200" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D200" s="5">
         <v>1800</v>
@@ -8267,10 +8267,10 @@
     </row>
     <row r="201" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D201" s="5">
         <v>1500</v>
@@ -8294,10 +8294,10 @@
     </row>
     <row r="202" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D202" s="5">
         <v>800</v>
@@ -8322,10 +8322,10 @@
     </row>
     <row r="203" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D203" s="5">
         <v>1000</v>
@@ -8349,10 +8349,10 @@
     </row>
     <row r="204" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D204" s="5">
         <v>9000</v>
@@ -8376,10 +8376,10 @@
     </row>
     <row r="205" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D205" s="5">
         <v>3300</v>
@@ -8403,10 +8403,10 @@
     </row>
     <row r="206" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D206" s="5">
         <v>2100</v>
@@ -8430,10 +8430,10 @@
     </row>
     <row r="207" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D207" s="5">
         <v>950</v>
@@ -8458,10 +8458,10 @@
     </row>
     <row r="208" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D208" s="5">
         <v>250</v>
@@ -8485,10 +8485,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D209" s="5">
         <v>250</v>
@@ -8512,10 +8512,10 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D210" s="5">
         <v>510</v>
@@ -8539,10 +8539,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D211" s="5">
         <v>4000</v>
@@ -8566,10 +8566,10 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D212" s="5">
         <v>4000</v>
@@ -8593,10 +8593,10 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D213" s="5">
         <v>6500</v>
@@ -8620,10 +8620,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D214" s="5">
         <v>6500</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D215" s="5">
         <v>700</v>
@@ -8674,10 +8674,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D216" s="5">
         <v>1800</v>
@@ -8701,10 +8701,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D217" s="5">
         <v>360</v>
@@ -8728,10 +8728,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D218" s="17">
         <v>0</v>
@@ -8756,10 +8756,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D219" s="17">
         <v>1</v>
@@ -8783,10 +8783,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D220" s="17">
         <v>1</v>
@@ -8810,10 +8810,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D221" s="17">
         <v>1</v>
